--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -13,43 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1.  here are 20 random subjects:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2. 20 randomly selected words from the topics listed:</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>SR</t>
   </si>
@@ -60,113 +25,131 @@
     <t>Definition</t>
   </si>
   <si>
-    <t xml:space="preserve"> A ledger is a book or electronic record used for keeping track of financial transactions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accrual accounting is an accounting method where revenues and expenses are recorded when they are earned or incurred, regardless of when the money is actually received or paid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auditing is the process of examining financial statements, records, and other financial information to ensure that they are accurate and comply with applicable laws and regulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A balance sheet is a financial statement that shows a company's assets, liabilities, and equity at a specific point in time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aerodynamics is the study of how air flows around objects, such as airplanes or cars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Orbital mechanics is the branch of physics that deals with the motion of objects in orbit around a celestial body, such as a planet or moon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propulsion is the force that drives a vehicle or object forward, such as a rocket engine or a car engine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satellites are objects placed in orbit around the Earth or another planet, used for communication, observation, and other purposes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supply and demand is an economic model that describes how prices are determined by the availability of goods and the demand for them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Subsidies are financial assistance given by the government to support specific industries or businesses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Market price is the current price of a good or service in the open market, based on supply and demand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crop yields refer to the amount of agricultural produce harvested from a given area of land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crop rotation is a farming technique where different crops are grown in the same field in a planned sequence to improve soil health and reduce pests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Livestock management involves the care and breeding of domesticated animals such as cows, pigs, and chickens, for food, fiber, and other products.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soil conservation is the practice of preventing soil erosion and depletion through methods such as crop rotation, terracing, and cover cropping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agroforestry is a land use management system that combines trees with agricultural crops or livestock to create more sustainable and productive landscapes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Multiculturalism is the coexistence of multiple cultures within a society, where diversity is celebrated and differences are respected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ledger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accruals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auditing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Balance sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aerodynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Orbital mechanics</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propulsion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satellites</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supply and demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Subsidies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Market price</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crop yields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crop rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Livestock management</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soil conservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agroforestry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Multiculturalism</t>
+    <t xml:space="preserve"> DNA replication </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which a cell makes an identical copy of its DNA before cell division occurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keystone species </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A species that plays a critical role in maintaining the structure and function of an ecosystem. The loss of a keystone species can have significant impacts on the ecosystem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microbial growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The increase in the number of microorganisms, such as bacteria or fungi, in a particular environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Photosynthesis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which plants and some other organisms convert light energy into chemical energy in the form of glucose and other organic compounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animal migration </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The movement of animals from one region to another on a regular basis, often in response to seasonal changes in resources or environmental conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muscular system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bodily system composed of muscles and tendons that allows movement of the body and its parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Endocrine system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bodily system that produces hormones and regulates bodily functions such as growth, development, and metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protein structure </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The interactions between two or more protein molecules that are necessary for many biological processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plate boundaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The boundaries between tectonic plates in the Earth's crust, where earthquakes, volcanic activity, and the creation of mountains occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Food webs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The interconnected food chains within an ecosystem, showing the transfer of energy and matter from one organism to another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microbial genetics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of the genetics of microorganisms, including bacteria, viruses, and fungi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cell wall </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The rigid layer surrounding the cell membrane of a plant or bacterial cell, providing support and protection for the cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animal communication </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The transmission of information between animals using signals such as sounds, visual cues, or chemical signals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digestive system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bodily system responsible for breaking down food into nutrients that can be absorbed and used by the body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cardiovascular system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The bodily system responsible for circulating blood and oxygen throughout the body, composed of the heart and blood vessels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enzyme kinetics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluid mechanics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of the behavior of fluids, including liquids, gases, and plasmas, and their interactions with forces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Earthquakes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sudden and rapid movements of the Earth's crust caused by the release of energy stored in rocks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biogeochemical cycles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cycling of elements such as carbon, nitrogen, and phosphorus through living and nonliving components of an ecosystem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The three  dimensional arrangement of amino acids in a protein molecule, which determines its function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein interactions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of the rates of enzyme catalyzed reactions and the factors that affect them.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,25 +163,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -216,7 +180,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <color rgb="FFD1D5DB"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -241,25 +205,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,8 +590,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -580,10 +601,10 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" customWidth="1"/>
+    <col min="3" max="3" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,277 +615,350 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
     </row>
@@ -1249,11 +1343,16 @@
       <c r="B143" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B144 A1:XFD1 A145:C1048576 C125:C144 D20:XFD1048576 A2:A144 E2:XFD19">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B144 A1:XFD1 A145:C1048576 C125:C144 D22:XFD22 D41:XFD1048576 E23:XFD40 P2:XFD21 A2:A144">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9 B11:B21">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9 B11:B21">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>SR</t>
   </si>
@@ -25,131 +25,251 @@
     <t>Definition</t>
   </si>
   <si>
-    <t xml:space="preserve"> DNA replication </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The process by which a cell makes an identical copy of its DNA before cell division occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keystone species </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A species that plays a critical role in maintaining the structure and function of an ecosystem. The loss of a keystone species can have significant impacts on the ecosystem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microbial growth </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The increase in the number of microorganisms, such as bacteria or fungi, in a particular environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Photosynthesis </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The process by which plants and some other organisms convert light energy into chemical energy in the form of glucose and other organic compounds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animal migration </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The movement of animals from one region to another on a regular basis, often in response to seasonal changes in resources or environmental conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Muscular system </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The bodily system composed of muscles and tendons that allows movement of the body and its parts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Endocrine system </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The bodily system that produces hormones and regulates bodily functions such as growth, development, and metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protein structure </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The interactions between two or more protein molecules that are necessary for many biological processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plate boundaries </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The boundaries between tectonic plates in the Earth's crust, where earthquakes, volcanic activity, and the creation of mountains occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Food webs </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The interconnected food chains within an ecosystem, showing the transfer of energy and matter from one organism to another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microbial genetics </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The study of the genetics of microorganisms, including bacteria, viruses, and fungi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cell wall </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The rigid layer surrounding the cell membrane of a plant or bacterial cell, providing support and protection for the cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animal communication </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The transmission of information between animals using signals such as sounds, visual cues, or chemical signals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Digestive system </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The bodily system responsible for breaking down food into nutrients that can be absorbed and used by the body.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cardiovascular system </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The bodily system responsible for circulating blood and oxygen throughout the body, composed of the heart and blood vessels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enzyme kinetics </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fluid mechanics </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The study of the behavior of fluids, including liquids, gases, and plasmas, and their interactions with forces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Earthquakes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sudden and rapid movements of the Earth's crust caused by the release of energy stored in rocks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biogeochemical cycles </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The cycling of elements such as carbon, nitrogen, and phosphorus through living and nonliving components of an ecosystem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The three  dimensional arrangement of amino acids in a protein molecule, which determines its function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein interactions </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The study of the rates of enzyme catalyzed reactions and the factors that affect them.</t>
+    <t xml:space="preserve"> Ecosystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A community of living organisms interacting with each other and with their non-living environment, such as air, water, and soil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urbanization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which an increasing proportion of a population lives in urban areas, leading to the growth and expansion of cities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glaciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which a glacier is formed and moves over time, shaping the landscape through erosion and deposition of sediments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A measure of the average kinetic energy of the particles in a substance, usually referring to the level of heat in the atmosphere or environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Species distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The geographic range or area where a particular species can be found, influenced by various factors such as climate, food availability, and competition with other species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topography</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The physical features of an area, such as hills, valleys, and other surface features, that help define its character and shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watershed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An area of land where all the water drains into the same body of water, such as a river or lake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of the interactions between nations, including diplomacy, trade, and conflict.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Folklore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The traditional beliefs, customs, stories, and practices of a particular culture or community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The exchange of goods and services between countries, often regulated by trade policies and agreements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The long-term alteration of global weather patterns due to human activity, primarily the emission of greenhouse gases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The physical, legal, or administrative divisions that separate one political entity from another, such as countries or states.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Settlement patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The distribution and arrangement of human settlements, influenced by factors such as topography, climate, and resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soil erosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which soil is moved or displaced by wind, water, or other natural or human-made factors, leading to the degradation of soil quality and loss of topsoil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Human migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The movement of people from one place to another, often influenced by economic, social, political, or environmental factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural disasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catastrophic events caused by natural phenomena, such as earthquakes, hurricanes, or wildfires, that can have devastating effects on human and natural systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A system of communication using sounds, symbols, or gestures to convey meaning, often closely tied to cultural identity and heritage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Economic development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The process by which a country or region improves its economic and social conditions, often through industrialization, infrastructure development, and investment in human capital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> River networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The interconnected system of channels and tributaries that make up a river basin, influencing the flow of water and sediment throughout the landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geographical Information Systems (GIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer-based tools and software used to capture, store, analyze, and display spatial data, providing a powerful tool for understanding and managing complex geographical systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multivariable calculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A branch of calculus that deals with functions of several variables, which extends the ideas of differential and integral calculus to higher dimensions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A branch of mathematical logic that studies sets, which are collections of objects, and their properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Markov chains</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A stochastic model that describes a sequence of events in which the probability of each event depends only on the state attained in the previous event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vector calculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A branch of calculus that deals with vector fields, which are functions that assign a vector to each point in a region of space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Euclidean geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of geometry that deals with the properties of flat or two-dimensional space, including lines, angles, triangles, circles, and polygons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayesian statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A branch of statistics that deals with the interpretation of probability as a measure of degree of belief, and its application to statistical inference and decision making.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partial differential equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of differential equation that involves functions of multiple variables and their partial derivatives, and finds applications in physics, engineering, and mathematics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permutations and combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A branch of combinatorics that deals with the study of arrangements and selections of objects, including permutations (ordered arrangements) and combinations (unordered selections).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matrix algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of matrices, which are rectangular arrays of numbers, and their properties, operations, and applications in various areas of mathematics, science, and engineering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of properties of spaces that are preserved under continuous transformations, including connectedness, compactness, continuity, and convergence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Game theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of mathematical models of strategic interactions between individuals, groups, or organizations, including the analysis of decision-making and optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fourier analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of the representation of functions or signals as a sum of trigonometric functions, and its application in signal processing, data analysis, and differential equations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Differential geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of geometry that deals with the properties of curves and surfaces in higher-dimensional spaces, and their applications in physics, engineering, and mathematics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hyperbolic geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of geometry that deals with the properties of non-Euclidean spaces, including curved surfaces, and their applications in various areas of mathematics and physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of mathematical structures that are discrete, rather than continuous, including graphs, trees, and networks, and their applications in computer science, cryptography, and combinatorics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stochastic processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of random processes that evolve over time, including random walks, Brownian motion, and Poisson processes, and their applications in statistics, physics, and finance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Complex analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of complex functions, which are functions that involve complex numbers, and their properties, including differentiation, integration, and analyticity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laplace transforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mathematical technique for transforming functions of time into functions of a complex variable, and its application in solving differential equations, control theory, and signal processing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of different types of numbers, including real numbers, complex numbers, rational numbers, irrational numbers, and p-adic numbers, and their properties and applications in mathematics and science.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Group theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study of abstract algebraic structures called groups, which are sets of elements with a binary operation that satisfies certain axioms, and their applications in various areas of mathematics, physics, and chemistry.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +298,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,52 +319,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -594,7 +672,7 @@
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,118 +700,118 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,54 +819,54 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,143 +874,264 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1334,23 +1533,15 @@
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B144 A1:XFD1 A145:C1048576 C125:C144 D22:XFD22 D41:XFD1048576 E23:XFD40 P2:XFD21 A2:A144">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9 B11:B21">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9 B11:B21">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="C123:C1048576 A1:XFD1 B142:B1048576 D22:XFD22 D41:XFD1048576 E23:XFD40 P2:XFD21 A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
